--- a/biology/Zoologie/Eresus/Eresus.xlsx
+++ b/biology/Zoologie/Eresus/Eresus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eresus est un genre d'araignées aranéomorphes de la famille des Eresidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eresus est un genre d'araignées aranéomorphes de la famille des Eresidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été baptisé à partir de la ville Ἔρεσος (Eresós) [de l'île de Lesbos] où un premier exemplaire a été (rencontré? et) décrit.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone paléarctique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone paléarctique.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre d'araignées terricoles présente un très grand dimorphisme sexuel, la femelle étant beaucoup plus grande que le mâle.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 15/08/2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 15/08/2023) :
 Eresus adaleari Zamani &amp; Szűts, 2020
 Eresus albopictus Simon, 1873
 Eresus bifasciatus Ermolajev, 1937
@@ -656,10 +676,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Walckenaer en 1805.
-Erythrophorus[2] a été placé en synonymie par Simon en 1864[3].
+Erythrophorus a été placé en synonymie par Simon en 1864.
 </t>
         </is>
       </c>
@@ -688,7 +710,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Walckenaer, 1805 : Tableau des aranéides ou caractères essentiels des tribus, genres, familles et races que renferme le genre Aranea de Linné, avec la désignation des espèces comprises dans chacune de ces divisions. Paris, p. 1-88.</t>
         </is>
